--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-procedure.xlsx
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JP-Core仕様】Observation_LabResultにならい、任意。</t>
+【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -562,13 +562,13 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-Core仕様】Observation_LabResultにならい、任意。</t>
+【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -583,7 +583,7 @@
     <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP-Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
+    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategoryCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1134,13 +1134,13 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-Core仕様】当面利用しない。</t>
+ 【JP Core仕様】当面利用しない。</t>
   </si>
   <si>
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRoleCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1248,7 +1248,7 @@
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReasonCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReason_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1321,7 +1321,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcomeCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcome_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1363,7 +1363,7 @@
 合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureConditionCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCondition_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1401,7 +1401,7 @@
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUpCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1463,10 +1463,10 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1482,7 +1482,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>
